--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE44547-6CE2-4816-A02D-E25F44B508BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD3ABA-EF02-445C-81B6-A844F465575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="8950" yWindow="2780" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>Security Principal</t>
   </si>
@@ -222,10 +222,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,12 +246,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,17 +268,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,7 +620,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,6 +712,9 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
       <c r="K2" t="s">
         <v>44</v>
       </c>
@@ -711,6 +729,9 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
       <c r="K3" t="s">
         <v>44</v>
       </c>
@@ -728,6 +749,9 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
       <c r="K4" t="s">
         <v>44</v>
       </c>
@@ -797,6 +821,9 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
       <c r="K10" t="s">
         <v>46</v>
       </c>
@@ -814,6 +841,9 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
       <c r="K11" t="s">
         <v>44</v>
       </c>
@@ -839,6 +869,9 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
       <c r="K13" t="s">
         <v>44</v>
       </c>
@@ -856,6 +889,9 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
       <c r="K14" t="s">
         <v>44</v>
       </c>
@@ -895,6 +931,9 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
       <c r="K17" t="s">
         <v>44</v>
       </c>
@@ -909,6 +948,9 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
       <c r="K18" t="s">
         <v>44</v>
       </c>
@@ -923,6 +965,9 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
@@ -937,6 +982,9 @@
       <c r="A20" t="s">
         <v>10</v>
       </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
@@ -951,6 +999,9 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
       <c r="K21" t="s">
         <v>44</v>
       </c>
@@ -968,6 +1019,9 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
       <c r="K22" t="s">
         <v>44</v>
       </c>
@@ -982,6 +1036,9 @@
       <c r="A23" t="s">
         <v>8</v>
       </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
       <c r="K23" t="s">
         <v>44</v>
       </c>
@@ -996,6 +1053,9 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
       <c r="K24" t="s">
         <v>46</v>
       </c>
@@ -1024,6 +1084,9 @@
       <c r="B26" t="s">
         <v>3</v>
       </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="K26" t="s">
         <v>44</v>
       </c>
@@ -1038,6 +1101,9 @@
       <c r="A27" t="s">
         <v>12</v>
       </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
       <c r="K27" t="s">
         <v>46</v>
       </c>
@@ -1051,6 +1117,9 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD3ABA-EF02-445C-81B6-A844F465575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CE51C-DD04-471E-8BFF-9640D66793B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8950" yWindow="2780" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="2160" yWindow="3140" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="84">
   <si>
     <t>Security Principal</t>
   </si>
@@ -134,18 +134,12 @@
     <t>Windows Server 2008</t>
   </si>
   <si>
-    <t>Windows Server 2008 R2</t>
-  </si>
-  <si>
     <t>Windows Server 2012</t>
   </si>
   <si>
     <t>Windows Server 2012 R2</t>
   </si>
   <si>
-    <t>Windows Server 2016</t>
-  </si>
-  <si>
     <t>Windows Server 2019</t>
   </si>
   <si>
@@ -216,13 +210,91 @@
   </si>
   <si>
     <t>Windows Server 2003 RTM</t>
+  </si>
+  <si>
+    <t>Access Control Assistance Operators</t>
+  </si>
+  <si>
+    <t>Certificate Service DCOM Access</t>
+  </si>
+  <si>
+    <t>Hyper-V Administrators</t>
+  </si>
+  <si>
+    <t>OpenSSH Users</t>
+  </si>
+  <si>
+    <t>RDS Endpoint Servers</t>
+  </si>
+  <si>
+    <t>RDS Management Servers</t>
+  </si>
+  <si>
+    <t>RDS Remote Access Servers</t>
+  </si>
+  <si>
+    <t>Remote Management Users</t>
+  </si>
+  <si>
+    <t>Storage Replica Administrators</t>
+  </si>
+  <si>
+    <t>Allowed RODC Password Replication Group</t>
+  </si>
+  <si>
+    <t>Cloneable Domain Controllers</t>
+  </si>
+  <si>
+    <t>Denied RODC Password Replication Group</t>
+  </si>
+  <si>
+    <t>Enterprise Key Admins</t>
+  </si>
+  <si>
+    <t>Enterprise Read-only Domain Controllers</t>
+  </si>
+  <si>
+    <t>External Trust Accounts</t>
+  </si>
+  <si>
+    <t>Forest Trust Accounts</t>
+  </si>
+  <si>
+    <t>Key Admins</t>
+  </si>
+  <si>
+    <t>Protected Users</t>
+  </si>
+  <si>
+    <t>Read-only Domain Controllers</t>
+  </si>
+  <si>
+    <t>IIS_IUSRS</t>
+  </si>
+  <si>
+    <t>Cryptographic Operators</t>
+  </si>
+  <si>
+    <t>Event Log Readers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows Server 2016 </t>
+  </si>
+  <si>
+    <t>WinRMRemoteWMIUsers__</t>
+  </si>
+  <si>
+    <t>Windows Server 2008 R2 SP1</t>
+  </si>
+  <si>
+    <t>Windows Server 2016 RTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +310,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +335,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,13 +363,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -614,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79057642-481E-49F7-B76B-37B0532D9236}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:Y50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +727,7 @@
     <col min="4" max="4" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,492 +761,1910 @@
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" t="s">
+        <v>44</v>
+      </c>
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="s">
+        <v>44</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" t="s">
+        <v>42</v>
+      </c>
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" t="s">
+        <v>44</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21" t="s">
+        <v>44</v>
+      </c>
+      <c r="X21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W23" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24" t="s">
+        <v>42</v>
+      </c>
+      <c r="X24" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25" t="s">
+        <v>42</v>
+      </c>
+      <c r="X25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" t="s">
+        <v>44</v>
+      </c>
+      <c r="V26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W26" t="s">
+        <v>44</v>
+      </c>
+      <c r="X26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28" t="s">
+        <v>44</v>
+      </c>
+      <c r="X28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T29" t="s">
+        <v>42</v>
+      </c>
+      <c r="U29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" t="s">
+        <v>42</v>
+      </c>
+      <c r="X29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>44</v>
+      </c>
+      <c r="R30" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V30" t="s">
+        <v>44</v>
+      </c>
+      <c r="W30" t="s">
+        <v>44</v>
+      </c>
+      <c r="X30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" t="s">
+        <v>44</v>
+      </c>
+      <c r="W31" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>44</v>
+      </c>
+      <c r="U32" t="s">
+        <v>44</v>
+      </c>
+      <c r="V32" t="s">
+        <v>44</v>
+      </c>
+      <c r="W32" t="s">
+        <v>44</v>
+      </c>
+      <c r="X32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s">
+        <v>44</v>
+      </c>
+      <c r="U33" t="s">
+        <v>44</v>
+      </c>
+      <c r="V33" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" t="s">
+        <v>44</v>
+      </c>
+      <c r="X33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" t="s">
+        <v>44</v>
+      </c>
+      <c r="V34" t="s">
+        <v>44</v>
+      </c>
+      <c r="W34" t="s">
+        <v>44</v>
+      </c>
+      <c r="X34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" t="s">
+        <v>44</v>
+      </c>
+      <c r="X35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s">
+        <v>42</v>
+      </c>
+      <c r="U36" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36" t="s">
+        <v>42</v>
+      </c>
+      <c r="W36" t="s">
+        <v>42</v>
+      </c>
+      <c r="X36" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s">
+        <v>42</v>
+      </c>
+      <c r="T37" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>42</v>
+      </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" t="s">
+        <v>42</v>
+      </c>
+      <c r="V38" t="s">
+        <v>42</v>
+      </c>
+      <c r="W38" t="s">
+        <v>42</v>
+      </c>
+      <c r="X38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s">
+        <v>42</v>
+      </c>
+      <c r="W39" t="s">
+        <v>42</v>
+      </c>
+      <c r="X39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>44</v>
+      </c>
+      <c r="R40" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s">
+        <v>44</v>
+      </c>
+      <c r="W40" t="s">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="W41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="W42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" t="s">
+        <v>44</v>
+      </c>
+      <c r="T43" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s">
+        <v>44</v>
+      </c>
+      <c r="V43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U45" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s">
+        <v>42</v>
+      </c>
+      <c r="X45" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>42</v>
+      </c>
+      <c r="R46" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s">
+        <v>42</v>
+      </c>
+      <c r="V46" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="R47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>44</v>
+      </c>
+      <c r="U47" t="s">
+        <v>44</v>
+      </c>
+      <c r="V47" t="s">
+        <v>44</v>
+      </c>
+      <c r="W47" t="s">
+        <v>44</v>
+      </c>
+      <c r="X47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s">
+        <v>44</v>
+      </c>
+      <c r="V48" t="s">
+        <v>44</v>
+      </c>
+      <c r="W48" t="s">
+        <v>44</v>
+      </c>
+      <c r="X48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>42</v>
+      </c>
+      <c r="R49" t="s">
+        <v>42</v>
+      </c>
+      <c r="T49" t="s">
+        <v>42</v>
+      </c>
+      <c r="U49" t="s">
+        <v>42</v>
+      </c>
+      <c r="V49" t="s">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s">
+        <v>42</v>
+      </c>
+      <c r="X49" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>42</v>
+      </c>
+      <c r="R50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" t="s">
+        <v>42</v>
+      </c>
+      <c r="V50" t="s">
+        <v>42</v>
+      </c>
+      <c r="W50" t="s">
+        <v>42</v>
+      </c>
+      <c r="X50" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="R51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="F68" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="K68" t="s">
         <v>41</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K45" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46CE51C-DD04-471E-8BFF-9640D66793B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAEE39-2F40-412F-8531-5B0368876528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="3140" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="90">
   <si>
     <t>Security Principal</t>
   </si>
@@ -288,6 +288,24 @@
   </si>
   <si>
     <t>Windows Server 2016 RTM</t>
+  </si>
+  <si>
+    <t>Tier 0 (https://specterops.github.io/TierZeroTable/)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y?</t>
+  </si>
+  <si>
+    <t>Exchange Trusted Subsystem</t>
+  </si>
+  <si>
+    <t>Exchange Windows Permissions</t>
+  </si>
+  <si>
+    <t>Windows 2000 SP4 w/ Exchange 2000 ADPrep</t>
   </si>
 </sst>
 </file>
@@ -363,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,6 +392,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,111 +737,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79057642-481E-49F7-B76B-37B0532D9236}">
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y2" sqref="Y2:Y50"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.453125" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="27" max="27" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
       <c r="R2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
       <c r="U2" t="s">
@@ -832,24 +864,33 @@
       <c r="Y2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
         <v>42</v>
       </c>
       <c r="N3" t="s">
@@ -867,7 +908,7 @@
       <c r="R3" t="s">
         <v>42</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>42</v>
       </c>
       <c r="U3" t="s">
@@ -885,21 +926,30 @@
       <c r="Y3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
@@ -917,7 +967,7 @@
       <c r="R4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
       <c r="U4" t="s">
@@ -935,24 +985,33 @@
       <c r="Y4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
         <v>42</v>
       </c>
       <c r="N5" t="s">
@@ -970,7 +1029,7 @@
       <c r="R5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>42</v>
       </c>
       <c r="U5" t="s">
@@ -988,14 +1047,14 @@
       <c r="Y5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
       <c r="P6" t="s">
         <v>44</v>
       </c>
@@ -1005,7 +1064,7 @@
       <c r="R6" t="s">
         <v>44</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>44</v>
       </c>
       <c r="U6" t="s">
@@ -1023,13 +1082,16 @@
       <c r="Y6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="O7" t="s">
-        <v>44</v>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="P7" t="s">
         <v>44</v>
@@ -1040,7 +1102,7 @@
       <c r="R7" t="s">
         <v>44</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>44</v>
       </c>
       <c r="U7" t="s">
@@ -1058,13 +1120,16 @@
       <c r="Y7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="M8" t="s">
-        <v>44</v>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="N8" t="s">
         <v>44</v>
@@ -1081,7 +1146,7 @@
       <c r="R8" t="s">
         <v>44</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>44</v>
       </c>
       <c r="U8" t="s">
@@ -1099,14 +1164,14 @@
       <c r="Y8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>79</v>
       </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
       <c r="P9" t="s">
         <v>44</v>
       </c>
@@ -1116,7 +1181,7 @@
       <c r="R9" t="s">
         <v>44</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>44</v>
       </c>
       <c r="U9" t="s">
@@ -1134,18 +1199,18 @@
       <c r="Y9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
       <c r="R10" t="s">
         <v>44</v>
       </c>
-      <c r="T10" t="s">
+      <c r="S10" t="s">
         <v>44</v>
       </c>
       <c r="U10" t="s">
@@ -1163,14 +1228,14 @@
       <c r="Y10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
-        <v>44</v>
-      </c>
       <c r="P11" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1245,7 @@
       <c r="R11" t="s">
         <v>44</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>44</v>
       </c>
       <c r="U11" t="s">
@@ -1198,14 +1263,14 @@
       <c r="Y11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
       <c r="N12" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1286,7 @@
       <c r="R12" t="s">
         <v>44</v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>44</v>
       </c>
       <c r="U12" t="s">
@@ -1239,14 +1304,14 @@
       <c r="Y12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
       <c r="N13" t="s">
         <v>44</v>
       </c>
@@ -1262,7 +1327,7 @@
       <c r="R13" t="s">
         <v>44</v>
       </c>
-      <c r="T13" t="s">
+      <c r="S13" t="s">
         <v>44</v>
       </c>
       <c r="U13" t="s">
@@ -1280,21 +1345,24 @@
       <c r="Y13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>61</v>
       </c>
-      <c r="W14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="M15" t="s">
-        <v>44</v>
+      <c r="B15" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="N15" t="s">
         <v>44</v>
@@ -1311,7 +1379,7 @@
       <c r="R15" t="s">
         <v>44</v>
       </c>
-      <c r="T15" t="s">
+      <c r="S15" t="s">
         <v>44</v>
       </c>
       <c r="U15" t="s">
@@ -1329,14 +1397,14 @@
       <c r="Y15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
       <c r="N16" t="s">
         <v>44</v>
       </c>
@@ -1352,7 +1420,7 @@
       <c r="R16" t="s">
         <v>44</v>
       </c>
-      <c r="T16" t="s">
+      <c r="S16" t="s">
         <v>44</v>
       </c>
       <c r="U16" t="s">
@@ -1370,21 +1438,27 @@
       <c r="Y16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
       <c r="H17" t="s">
         <v>44</v>
       </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
       <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>44</v>
       </c>
       <c r="N17" t="s">
@@ -1402,7 +1476,7 @@
       <c r="R17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="S17" t="s">
         <v>44</v>
       </c>
       <c r="U17" t="s">
@@ -1420,24 +1494,33 @@
       <c r="Y17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
         <v>42</v>
       </c>
       <c r="N18" t="s">
@@ -1455,7 +1538,7 @@
       <c r="R18" t="s">
         <v>42</v>
       </c>
-      <c r="T18" t="s">
+      <c r="S18" t="s">
         <v>42</v>
       </c>
       <c r="U18" t="s">
@@ -1473,18 +1556,18 @@
       <c r="Y18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" t="s">
-        <v>44</v>
-      </c>
       <c r="R19" t="s">
         <v>44</v>
       </c>
-      <c r="T19" t="s">
+      <c r="S19" t="s">
         <v>44</v>
       </c>
       <c r="U19" t="s">
@@ -1502,18 +1585,18 @@
       <c r="Y19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" t="s">
-        <v>44</v>
-      </c>
       <c r="R20" t="s">
         <v>44</v>
       </c>
-      <c r="T20" t="s">
+      <c r="S20" t="s">
         <v>44</v>
       </c>
       <c r="U20" t="s">
@@ -1531,18 +1614,18 @@
       <c r="Y20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" t="s">
-        <v>44</v>
-      </c>
       <c r="R21" t="s">
         <v>44</v>
       </c>
-      <c r="T21" t="s">
+      <c r="S21" t="s">
         <v>44</v>
       </c>
       <c r="U21" t="s">
@@ -1560,14 +1643,14 @@
       <c r="Y21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>49</v>
       </c>
-      <c r="M22" t="s">
-        <v>44</v>
-      </c>
       <c r="N22" t="s">
         <v>44</v>
       </c>
@@ -1583,7 +1666,7 @@
       <c r="R22" t="s">
         <v>44</v>
       </c>
-      <c r="T22" t="s">
+      <c r="S22" t="s">
         <v>44</v>
       </c>
       <c r="U22" t="s">
@@ -1601,18 +1684,18 @@
       <c r="Y22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" t="s">
-        <v>44</v>
-      </c>
       <c r="R23" t="s">
         <v>44</v>
       </c>
-      <c r="T23" t="s">
+      <c r="S23" t="s">
         <v>44</v>
       </c>
       <c r="U23" t="s">
@@ -1630,21 +1713,27 @@
       <c r="Y23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
       <c r="H24" t="s">
         <v>44</v>
       </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" t="s">
+        <v>44</v>
+      </c>
       <c r="K24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
         <v>42</v>
       </c>
       <c r="N24" t="s">
@@ -1662,7 +1751,7 @@
       <c r="R24" t="s">
         <v>42</v>
       </c>
-      <c r="T24" t="s">
+      <c r="S24" t="s">
         <v>42</v>
       </c>
       <c r="U24" t="s">
@@ -1680,24 +1769,33 @@
       <c r="Y24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="D25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
         <v>42</v>
       </c>
       <c r="N25" t="s">
@@ -1715,7 +1813,7 @@
       <c r="R25" t="s">
         <v>42</v>
       </c>
-      <c r="T25" t="s">
+      <c r="S25" t="s">
         <v>42</v>
       </c>
       <c r="U25" t="s">
@@ -1733,14 +1831,14 @@
       <c r="Y25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>66</v>
       </c>
-      <c r="T26" t="s">
-        <v>44</v>
-      </c>
       <c r="U26" t="s">
         <v>44</v>
       </c>
@@ -1756,14 +1854,14 @@
       <c r="Y26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="M27" t="s">
-        <v>44</v>
-      </c>
       <c r="N27" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1877,7 @@
       <c r="R27" t="s">
         <v>44</v>
       </c>
-      <c r="T27" t="s">
+      <c r="S27" t="s">
         <v>44</v>
       </c>
       <c r="U27" t="s">
@@ -1797,14 +1895,14 @@
       <c r="Y27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="M28" t="s">
-        <v>44</v>
-      </c>
       <c r="N28" t="s">
         <v>44</v>
       </c>
@@ -1820,7 +1918,7 @@
       <c r="R28" t="s">
         <v>44</v>
       </c>
-      <c r="T28" t="s">
+      <c r="S28" t="s">
         <v>44</v>
       </c>
       <c r="U28" t="s">
@@ -1838,21 +1936,33 @@
       <c r="Y28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29" t="s">
         <v>42</v>
       </c>
-      <c r="M29" t="s">
+      <c r="L29" t="s">
         <v>42</v>
       </c>
       <c r="N29" t="s">
@@ -1870,7 +1980,7 @@
       <c r="R29" t="s">
         <v>42</v>
       </c>
-      <c r="T29" t="s">
+      <c r="S29" t="s">
         <v>42</v>
       </c>
       <c r="U29" t="s">
@@ -1888,13 +1998,16 @@
       <c r="Y29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="O30" t="s">
-        <v>44</v>
+      <c r="B30" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="P30" t="s">
         <v>44</v>
@@ -1905,7 +2018,7 @@
       <c r="R30" t="s">
         <v>44</v>
       </c>
-      <c r="T30" t="s">
+      <c r="S30" t="s">
         <v>44</v>
       </c>
       <c r="U30" t="s">
@@ -1923,65 +2036,78 @@
       <c r="Y30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U31" t="s">
-        <v>44</v>
-      </c>
-      <c r="V31" t="s">
-        <v>44</v>
-      </c>
-      <c r="W31" t="s">
-        <v>44</v>
-      </c>
-      <c r="X31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="Q32" t="s">
-        <v>44</v>
-      </c>
       <c r="R32" t="s">
         <v>44</v>
       </c>
-      <c r="T32" t="s">
+      <c r="S32" t="s">
         <v>44</v>
       </c>
       <c r="U32" t="s">
@@ -1999,13 +2125,16 @@
       <c r="Y32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="O33" t="s">
-        <v>44</v>
+      <c r="B33" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="P33" t="s">
         <v>44</v>
@@ -2016,7 +2145,7 @@
       <c r="R33" t="s">
         <v>44</v>
       </c>
-      <c r="T33" t="s">
+      <c r="S33" t="s">
         <v>44</v>
       </c>
       <c r="U33" t="s">
@@ -2034,65 +2163,87 @@
       <c r="Y33" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" t="s">
-        <v>44</v>
-      </c>
-      <c r="T34" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" t="s">
-        <v>44</v>
-      </c>
-      <c r="V34" t="s">
-        <v>44</v>
-      </c>
-      <c r="W34" t="s">
-        <v>44</v>
-      </c>
-      <c r="X34" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
       </c>
-      <c r="M35" t="s">
+      <c r="L35" t="s">
         <v>44</v>
       </c>
       <c r="N35" t="s">
@@ -2110,7 +2261,7 @@
       <c r="R35" t="s">
         <v>44</v>
       </c>
-      <c r="T35" t="s">
+      <c r="S35" t="s">
         <v>44</v>
       </c>
       <c r="U35" t="s">
@@ -2128,18 +2279,30 @@
       <c r="Y35" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36" t="s">
         <v>42</v>
       </c>
-      <c r="M36" t="s">
+      <c r="L36" t="s">
         <v>42</v>
       </c>
       <c r="N36" t="s">
@@ -2157,7 +2320,7 @@
       <c r="R36" t="s">
         <v>42</v>
       </c>
-      <c r="T36" t="s">
+      <c r="S36" t="s">
         <v>42</v>
       </c>
       <c r="U36" t="s">
@@ -2175,21 +2338,33 @@
       <c r="Y36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="H37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
         <v>42</v>
       </c>
       <c r="N37" t="s">
@@ -2207,7 +2382,7 @@
       <c r="R37" t="s">
         <v>42</v>
       </c>
-      <c r="T37" t="s">
+      <c r="S37" t="s">
         <v>42</v>
       </c>
       <c r="U37" t="s">
@@ -2225,18 +2400,30 @@
       <c r="Y37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
+      <c r="B38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
         <v>42</v>
       </c>
       <c r="K38" t="s">
         <v>42</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" t="s">
         <v>42</v>
       </c>
       <c r="N38" t="s">
@@ -2254,7 +2441,7 @@
       <c r="R38" t="s">
         <v>42</v>
       </c>
-      <c r="T38" t="s">
+      <c r="S38" t="s">
         <v>42</v>
       </c>
       <c r="U38" t="s">
@@ -2272,16 +2459,19 @@
       <c r="Y38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="T39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" t="s">
-        <v>42</v>
+      <c r="B39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V39" t="s">
         <v>42</v>
@@ -2295,13 +2485,16 @@
       <c r="Y39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="O40" t="s">
-        <v>44</v>
+      <c r="B40" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="P40" t="s">
         <v>44</v>
@@ -2312,7 +2505,7 @@
       <c r="R40" t="s">
         <v>44</v>
       </c>
-      <c r="T40" t="s">
+      <c r="S40" t="s">
         <v>44</v>
       </c>
       <c r="U40" t="s">
@@ -2330,34 +2523,46 @@
       <c r="Y40" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>72</v>
       </c>
-      <c r="W41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>73</v>
       </c>
-      <c r="W42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="B43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s">
         <v>44</v>
       </c>
       <c r="K43" t="s">
         <v>44</v>
       </c>
-      <c r="M43" t="s">
+      <c r="L43" t="s">
         <v>44</v>
       </c>
       <c r="N43" t="s">
@@ -2375,7 +2580,7 @@
       <c r="R43" t="s">
         <v>44</v>
       </c>
-      <c r="T43" t="s">
+      <c r="S43" t="s">
         <v>44</v>
       </c>
       <c r="U43" t="s">
@@ -2393,27 +2598,30 @@
       <c r="Y43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="M44" t="s">
-        <v>44</v>
-      </c>
       <c r="N44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="T45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U45" t="s">
-        <v>42</v>
+      <c r="B45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="V45" t="s">
         <v>42</v>
@@ -2427,21 +2635,33 @@
       <c r="Y45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="H46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" t="s">
         <v>42</v>
       </c>
       <c r="N46" t="s">
@@ -2459,7 +2679,7 @@
       <c r="R46" t="s">
         <v>42</v>
       </c>
-      <c r="T46" t="s">
+      <c r="S46" t="s">
         <v>42</v>
       </c>
       <c r="U46" t="s">
@@ -2477,16 +2697,16 @@
       <c r="Y46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="R47" t="s">
-        <v>44</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="H47" s="3"/>
+      <c r="S47" t="s">
         <v>44</v>
       </c>
       <c r="U47" t="s">
@@ -2504,18 +2724,27 @@
       <c r="Y47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" t="s">
         <v>44</v>
       </c>
-      <c r="M48" t="s">
+      <c r="L48" t="s">
         <v>44</v>
       </c>
       <c r="N48" t="s">
@@ -2533,7 +2762,7 @@
       <c r="R48" t="s">
         <v>44</v>
       </c>
-      <c r="T48" t="s">
+      <c r="S48" t="s">
         <v>44</v>
       </c>
       <c r="U48" t="s">
@@ -2551,17 +2780,20 @@
       <c r="Y48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O49" t="s">
-        <v>42</v>
-      </c>
       <c r="P49" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +2803,7 @@
       <c r="R49" t="s">
         <v>42</v>
       </c>
-      <c r="T49" t="s">
+      <c r="S49" t="s">
         <v>42</v>
       </c>
       <c r="U49" t="s">
@@ -2589,18 +2821,30 @@
       <c r="Y49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="B50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50" t="s">
         <v>42</v>
       </c>
-      <c r="M50" t="s">
+      <c r="L50" t="s">
         <v>42</v>
       </c>
       <c r="N50" t="s">
@@ -2618,7 +2862,7 @@
       <c r="R50" t="s">
         <v>42</v>
       </c>
-      <c r="T50" t="s">
+      <c r="S50" t="s">
         <v>42</v>
       </c>
       <c r="U50" t="s">
@@ -2636,34 +2880,53 @@
       <c r="Y50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="R51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="S51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="M52" t="s">
-        <v>44</v>
-      </c>
       <c r="N52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>41</v>
       </c>
     </row>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAEE39-2F40-412F-8531-5B0368876528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4F248-859A-414F-8FE4-B19F619C2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="3140" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,10 +743,10 @@
   <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29:K50"/>
+      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,7 +755,7 @@
     <col min="2" max="2" width="13.7265625" style="8" customWidth="1"/>
     <col min="3" max="3" width="9" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -769,13 +772,13 @@
       <c r="D1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -835,7 +838,7 @@
       <c r="Z1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="10" t="s">
         <v>89</v>
       </c>
     </row>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4F248-859A-414F-8FE4-B19F619C2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6722160-E1BA-4667-BA9F-4B246E32C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3140" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="6090" yWindow="4430" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="90">
   <si>
     <t>Security Principal</t>
   </si>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,6 +411,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -746,7 +753,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2065,6 +2072,9 @@
       <c r="L31" t="s">
         <v>42</v>
       </c>
+      <c r="M31" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="N31" s="4" t="s">
         <v>44</v>
       </c>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6722160-E1BA-4667-BA9F-4B246E32C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC103BE-25DB-4843-9D39-6AED379AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="4430" windowWidth="28800" windowHeight="15290" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="3440" yWindow="3800" windowWidth="33580" windowHeight="16370" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Abridged Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="105">
   <si>
     <t>Security Principal</t>
   </si>
   <si>
-    <t>Transitive Members</t>
-  </si>
-  <si>
     <t>Administrator</t>
   </si>
   <si>
@@ -194,9 +192,6 @@
     <t>Windows Authorization Access Group</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>HelpServicesGroup</t>
   </si>
   <si>
@@ -306,6 +301,57 @@
   </si>
   <si>
     <t>Windows 2000 SP4 w/ Exchange 2000 ADPrep</t>
+  </si>
+  <si>
+    <t>TierZeroTable</t>
+  </si>
+  <si>
+    <t>dSHeuristics</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>fExcludeMembers</t>
+  </si>
+  <si>
+    <t>Windows 2000 Server RTM through Windows 2000 Server SP3</t>
+  </si>
+  <si>
+    <t>Windows 2000 Server SP4 through Windows Server 2003 RTM</t>
+  </si>
+  <si>
+    <t>Windows Server 2003 SP1 through Windows Server 2012 R2</t>
+  </si>
+  <si>
+    <t>Windows Server 2019 &amp; Windows Server SAC1804 through Windows Server 2025</t>
+  </si>
+  <si>
+    <t>fExcludeMembers (No transitive members if true)</t>
+  </si>
+  <si>
+    <t>Windows2003 w/ Exchange2003 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows2003R2 w/ Exchange2007 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows2008R2 w/ Exchange2010 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows 2008R2 w/ Exchange 2013 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows2012R2 w/ Exchange2016 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows2016 w/ Exchange 2016 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows 2019 w/ Exchange 2019 ADPrep</t>
+  </si>
+  <si>
+    <t>Windows2025 w/ Exchange SE ADPrep</t>
   </si>
 </sst>
 </file>
@@ -374,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,36 +428,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -747,2199 +822,2878 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79057642-481E-49F7-B76B-37B0532D9236}">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" t="s">
-        <v>44</v>
-      </c>
-      <c r="X9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" t="s">
-        <v>44</v>
-      </c>
-      <c r="X10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s">
-        <v>44</v>
-      </c>
-      <c r="V12" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" t="s">
-        <v>44</v>
-      </c>
-      <c r="X12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" t="s">
-        <v>44</v>
-      </c>
-      <c r="V13" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="X14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s">
-        <v>44</v>
-      </c>
-      <c r="V15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" t="s">
-        <v>44</v>
-      </c>
-      <c r="X15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="V34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="V39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>85</v>
+        <v>8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="V45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="H47" s="2"/>
       <c r="S47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>52</v>
+        <v>74</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" t="s">
         <v>39</v>
       </c>
-      <c r="G68" t="s">
+      <c r="L68" t="s">
         <v>40</v>
       </c>
-      <c r="L68" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD60A42-6B23-4837-BB6D-1BC9875B3BE1}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="141" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>41</v>
       </c>
     </row>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC103BE-25DB-4843-9D39-6AED379AEE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C985522-260C-4F5D-B5AA-F5A6D5D9A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3800" windowWidth="33580" windowHeight="16370" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="39640" yWindow="3760" windowWidth="33580" windowHeight="16370" activeTab="1" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Version" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="110">
   <si>
     <t>Security Principal</t>
   </si>
@@ -352,6 +352,21 @@
   </si>
   <si>
     <t>Windows2025 w/ Exchange SE ADPrep</t>
+  </si>
+  <si>
+    <t>BHE Default Tier 0</t>
+  </si>
+  <si>
+    <t>Domain head object</t>
+  </si>
+  <si>
+    <t>AdminSDHolder object</t>
+  </si>
+  <si>
+    <t>Enterprise Domain Controllers</t>
+  </si>
+  <si>
+    <t>BHE Tier0</t>
   </si>
 </sst>
 </file>
@@ -395,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -486,6 +507,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,143 +852,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79057642-481E-49F7-B76B-37B0532D9236}">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="3.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
       <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
       <c r="V2" t="s">
@@ -976,19 +1007,19 @@
       <c r="Z2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>43</v>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>43</v>
@@ -999,10 +1030,10 @@
       <c r="K3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="O3" t="s">
@@ -1020,7 +1051,7 @@
       <c r="S3" t="s">
         <v>41</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
         <v>41</v>
       </c>
       <c r="V3" t="s">
@@ -1038,16 +1069,19 @@
       <c r="Z3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>43</v>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>43</v>
@@ -1058,10 +1092,10 @@
       <c r="K4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
       </c>
       <c r="O4" t="s">
@@ -1079,7 +1113,7 @@
       <c r="S4" t="s">
         <v>41</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" t="s">
         <v>41</v>
       </c>
       <c r="V4" t="s">
@@ -1097,19 +1131,19 @@
       <c r="Z4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>43</v>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>43</v>
@@ -1120,10 +1154,10 @@
       <c r="K5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>41</v>
       </c>
       <c r="O5" t="s">
@@ -1141,7 +1175,7 @@
       <c r="S5" t="s">
         <v>41</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5" t="s">
         <v>41</v>
       </c>
       <c r="V5" t="s">
@@ -1159,14 +1193,14 @@
       <c r="Z5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
       <c r="Q6" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1210,7 @@
       <c r="S6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" t="s">
         <v>43</v>
       </c>
       <c r="V6" t="s">
@@ -1194,16 +1228,16 @@
       <c r="Z6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="Q7" t="s">
         <v>43</v>
@@ -1214,7 +1248,7 @@
       <c r="S7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" t="s">
         <v>43</v>
       </c>
       <c r="V7" t="s">
@@ -1232,16 +1266,16 @@
       <c r="Z7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" t="s">
-        <v>43</v>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
@@ -1258,7 +1292,7 @@
       <c r="S8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" t="s">
         <v>43</v>
       </c>
       <c r="V8" t="s">
@@ -1276,14 +1310,14 @@
       <c r="Z8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
-        <v>43</v>
-      </c>
       <c r="Q9" t="s">
         <v>43</v>
       </c>
@@ -1293,7 +1327,7 @@
       <c r="S9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>43</v>
       </c>
       <c r="V9" t="s">
@@ -1311,18 +1345,18 @@
       <c r="Z9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="R10" t="s">
-        <v>43</v>
-      </c>
       <c r="S10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>43</v>
       </c>
       <c r="V10" t="s">
@@ -1340,14 +1374,14 @@
       <c r="Z10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" t="s">
-        <v>43</v>
-      </c>
       <c r="Q11" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1391,7 @@
       <c r="S11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" t="s">
         <v>43</v>
       </c>
       <c r="V11" t="s">
@@ -1375,14 +1409,14 @@
       <c r="Z11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="N12" t="s">
-        <v>43</v>
-      </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
@@ -1398,7 +1432,7 @@
       <c r="S12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" t="s">
         <v>43</v>
       </c>
       <c r="V12" t="s">
@@ -1416,14 +1450,14 @@
       <c r="Z12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="N13" t="s">
-        <v>43</v>
-      </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
@@ -1439,7 +1473,7 @@
       <c r="S13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" t="s">
         <v>43</v>
       </c>
       <c r="V13" t="s">
@@ -1457,25 +1491,25 @@
       <c r="Z13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="X14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="Y14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N15" t="s">
-        <v>43</v>
-      </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
@@ -1491,7 +1525,7 @@
       <c r="S15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15" t="s">
         <v>43</v>
       </c>
       <c r="V15" t="s">
@@ -1509,14 +1543,14 @@
       <c r="Z15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
@@ -1532,7 +1566,7 @@
       <c r="S16" t="s">
         <v>43</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" t="s">
         <v>43</v>
       </c>
       <c r="V16" t="s">
@@ -1550,14 +1584,14 @@
       <c r="Z16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
       <c r="I17" t="s">
         <v>43</v>
       </c>
@@ -1570,7 +1604,7 @@
       <c r="L17" t="s">
         <v>43</v>
       </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s">
         <v>43</v>
       </c>
       <c r="O17" t="s">
@@ -1588,7 +1622,7 @@
       <c r="S17" t="s">
         <v>43</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17" t="s">
         <v>43</v>
       </c>
       <c r="V17" t="s">
@@ -1606,19 +1640,19 @@
       <c r="Z17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>43</v>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>43</v>
@@ -1629,10 +1663,10 @@
       <c r="K18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="L18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
         <v>41</v>
       </c>
       <c r="O18" t="s">
@@ -1650,7 +1684,7 @@
       <c r="S18" t="s">
         <v>41</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18" t="s">
         <v>41</v>
       </c>
       <c r="V18" t="s">
@@ -1668,18 +1702,18 @@
       <c r="Z18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="R19" t="s">
-        <v>43</v>
-      </c>
       <c r="S19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19" t="s">
         <v>43</v>
       </c>
       <c r="V19" t="s">
@@ -1697,18 +1731,18 @@
       <c r="Z19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="R20" t="s">
-        <v>43</v>
-      </c>
       <c r="S20" t="s">
         <v>43</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T20" t="s">
         <v>43</v>
       </c>
       <c r="V20" t="s">
@@ -1726,18 +1760,18 @@
       <c r="Z20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="R21" t="s">
-        <v>43</v>
-      </c>
       <c r="S21" t="s">
         <v>43</v>
       </c>
-      <c r="U21" t="s">
+      <c r="T21" t="s">
         <v>43</v>
       </c>
       <c r="V21" t="s">
@@ -1755,14 +1789,14 @@
       <c r="Z21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="N22" t="s">
-        <v>43</v>
-      </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
@@ -1778,7 +1812,7 @@
       <c r="S22" t="s">
         <v>43</v>
       </c>
-      <c r="U22" t="s">
+      <c r="T22" t="s">
         <v>43</v>
       </c>
       <c r="V22" t="s">
@@ -1796,18 +1830,18 @@
       <c r="Z22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="R23" t="s">
-        <v>43</v>
-      </c>
       <c r="S23" t="s">
         <v>43</v>
       </c>
-      <c r="U23" t="s">
+      <c r="T23" t="s">
         <v>43</v>
       </c>
       <c r="V23" t="s">
@@ -1825,14 +1859,14 @@
       <c r="Z23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
       <c r="I24" t="s">
         <v>43</v>
       </c>
@@ -1843,9 +1877,9 @@
         <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
         <v>41</v>
       </c>
       <c r="O24" t="s">
@@ -1863,7 +1897,7 @@
       <c r="S24" t="s">
         <v>41</v>
       </c>
-      <c r="U24" t="s">
+      <c r="T24" t="s">
         <v>41</v>
       </c>
       <c r="V24" t="s">
@@ -1881,19 +1915,19 @@
       <c r="Z24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>43</v>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>43</v>
@@ -1904,10 +1938,10 @@
       <c r="K25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L25" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="L25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
         <v>41</v>
       </c>
       <c r="O25" t="s">
@@ -1925,7 +1959,7 @@
       <c r="S25" t="s">
         <v>41</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" t="s">
         <v>41</v>
       </c>
       <c r="V25" t="s">
@@ -1943,14 +1977,14 @@
       <c r="Z25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>64</v>
       </c>
-      <c r="U26" t="s">
-        <v>43</v>
-      </c>
       <c r="V26" t="s">
         <v>43</v>
       </c>
@@ -1966,14 +2000,14 @@
       <c r="Z26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="N27" t="s">
-        <v>43</v>
-      </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +2023,7 @@
       <c r="S27" t="s">
         <v>43</v>
       </c>
-      <c r="U27" t="s">
+      <c r="T27" t="s">
         <v>43</v>
       </c>
       <c r="V27" t="s">
@@ -2007,14 +2041,14 @@
       <c r="Z27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="N28" t="s">
-        <v>43</v>
-      </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
@@ -2030,7 +2064,7 @@
       <c r="S28" t="s">
         <v>43</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" t="s">
         <v>43</v>
       </c>
       <c r="V28" t="s">
@@ -2048,16 +2082,19 @@
       <c r="Z28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H29" t="s">
-        <v>41</v>
+      <c r="C29" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I29" t="s">
         <v>41</v>
@@ -2071,7 +2108,7 @@
       <c r="L29" t="s">
         <v>41</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M29" t="s">
         <v>41</v>
       </c>
       <c r="O29" t="s">
@@ -2089,7 +2126,7 @@
       <c r="S29" t="s">
         <v>41</v>
       </c>
-      <c r="U29" t="s">
+      <c r="T29" t="s">
         <v>41</v>
       </c>
       <c r="V29" t="s">
@@ -2107,17 +2144,17 @@
       <c r="Z29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P30" t="s">
-        <v>43</v>
-      </c>
       <c r="Q30" t="s">
         <v>43</v>
       </c>
@@ -2127,7 +2164,7 @@
       <c r="S30" t="s">
         <v>43</v>
       </c>
-      <c r="U30" t="s">
+      <c r="T30" t="s">
         <v>43</v>
       </c>
       <c r="V30" t="s">
@@ -2145,16 +2182,16 @@
       <c r="Z30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>43</v>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>43</v>
@@ -2165,14 +2202,14 @@
       <c r="K31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>43</v>
+      <c r="L31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>43</v>
@@ -2189,10 +2226,10 @@
       <c r="S31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="T31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="3"/>
       <c r="V31" s="3" t="s">
         <v>43</v>
       </c>
@@ -2208,18 +2245,18 @@
       <c r="Z31" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="R32" t="s">
-        <v>43</v>
-      </c>
       <c r="S32" t="s">
         <v>43</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T32" t="s">
         <v>43</v>
       </c>
       <c r="V32" t="s">
@@ -2237,17 +2274,17 @@
       <c r="Z32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P33" t="s">
-        <v>43</v>
-      </c>
       <c r="Q33" t="s">
         <v>43</v>
       </c>
@@ -2257,7 +2294,7 @@
       <c r="S33" t="s">
         <v>43</v>
       </c>
-      <c r="U33" t="s">
+      <c r="T33" t="s">
         <v>43</v>
       </c>
       <c r="V33" t="s">
@@ -2275,16 +2312,16 @@
       <c r="Z33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>43</v>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>43</v>
@@ -2298,7 +2335,7 @@
       <c r="L34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="O34" s="3" t="s">
@@ -2316,10 +2353,10 @@
       <c r="S34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="T34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
         <v>43</v>
       </c>
@@ -2335,14 +2372,14 @@
       <c r="Z34" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
-        <v>43</v>
-      </c>
       <c r="I35" t="s">
         <v>43</v>
       </c>
@@ -2355,7 +2392,7 @@
       <c r="L35" t="s">
         <v>43</v>
       </c>
-      <c r="N35" t="s">
+      <c r="M35" t="s">
         <v>43</v>
       </c>
       <c r="O35" t="s">
@@ -2373,7 +2410,7 @@
       <c r="S35" t="s">
         <v>43</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" t="s">
         <v>43</v>
       </c>
       <c r="V35" t="s">
@@ -2391,16 +2428,19 @@
       <c r="Z35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H36" t="s">
-        <v>41</v>
+      <c r="C36" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>41</v>
@@ -2414,7 +2454,7 @@
       <c r="L36" t="s">
         <v>41</v>
       </c>
-      <c r="N36" t="s">
+      <c r="M36" t="s">
         <v>41</v>
       </c>
       <c r="O36" t="s">
@@ -2432,7 +2472,7 @@
       <c r="S36" t="s">
         <v>41</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" t="s">
         <v>41</v>
       </c>
       <c r="V36" t="s">
@@ -2450,20 +2490,23 @@
       <c r="Z36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="5" t="b">
+      <c r="C37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="I37" s="3" t="s">
         <v>43</v>
       </c>
@@ -2473,10 +2516,10 @@
       <c r="K37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L37" t="s">
-        <v>41</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="L37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" t="s">
         <v>41</v>
       </c>
       <c r="O37" t="s">
@@ -2494,7 +2537,7 @@
       <c r="S37" t="s">
         <v>41</v>
       </c>
-      <c r="U37" t="s">
+      <c r="T37" t="s">
         <v>41</v>
       </c>
       <c r="V37" t="s">
@@ -2512,16 +2555,19 @@
       <c r="Z37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H38" t="s">
-        <v>41</v>
+      <c r="C38" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I38" t="s">
         <v>41</v>
@@ -2535,7 +2581,7 @@
       <c r="L38" t="s">
         <v>41</v>
       </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s">
         <v>41</v>
       </c>
       <c r="O38" t="s">
@@ -2553,7 +2599,7 @@
       <c r="S38" t="s">
         <v>41</v>
       </c>
-      <c r="U38" t="s">
+      <c r="T38" t="s">
         <v>41</v>
       </c>
       <c r="V38" t="s">
@@ -2571,19 +2617,22 @@
       <c r="Z38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V39" t="s">
-        <v>41</v>
+      <c r="C39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="W39" t="s">
         <v>41</v>
@@ -2597,17 +2646,17 @@
       <c r="Z39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P40" t="s">
-        <v>43</v>
-      </c>
       <c r="Q40" t="s">
         <v>43</v>
       </c>
@@ -2617,7 +2666,7 @@
       <c r="S40" t="s">
         <v>43</v>
       </c>
-      <c r="U40" t="s">
+      <c r="T40" t="s">
         <v>43</v>
       </c>
       <c r="V40" t="s">
@@ -2635,33 +2684,33 @@
       <c r="Z40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="X41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="X42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H43" t="s">
-        <v>43</v>
-      </c>
       <c r="I43" t="s">
         <v>43</v>
       </c>
@@ -2674,7 +2723,7 @@
       <c r="L43" t="s">
         <v>43</v>
       </c>
-      <c r="N43" t="s">
+      <c r="M43" t="s">
         <v>43</v>
       </c>
       <c r="O43" t="s">
@@ -2692,7 +2741,7 @@
       <c r="S43" t="s">
         <v>43</v>
       </c>
-      <c r="U43" t="s">
+      <c r="T43" t="s">
         <v>43</v>
       </c>
       <c r="V43" t="s">
@@ -2710,30 +2759,33 @@
       <c r="Z43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="N44" t="s">
-        <v>43</v>
-      </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="P44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V45" t="s">
-        <v>41</v>
+      <c r="C45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="W45" t="s">
         <v>41</v>
@@ -2747,16 +2799,17 @@
       <c r="Z45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>43</v>
+      <c r="B46" s="21"/>
+      <c r="C46" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>43</v>
@@ -2767,10 +2820,10 @@
       <c r="K46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L46" t="s">
-        <v>41</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="L46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M46" t="s">
         <v>41</v>
       </c>
       <c r="O46" t="s">
@@ -2788,7 +2841,7 @@
       <c r="S46" t="s">
         <v>41</v>
       </c>
-      <c r="U46" t="s">
+      <c r="T46" t="s">
         <v>41</v>
       </c>
       <c r="V46" t="s">
@@ -2806,16 +2859,16 @@
       <c r="Z46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="S47" t="s">
-        <v>43</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="I47" s="2"/>
+      <c r="T47" t="s">
         <v>43</v>
       </c>
       <c r="V47" t="s">
@@ -2833,14 +2886,14 @@
       <c r="Z47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="H48" t="s">
-        <v>43</v>
-      </c>
       <c r="I48" t="s">
         <v>43</v>
       </c>
@@ -2853,7 +2906,7 @@
       <c r="L48" t="s">
         <v>43</v>
       </c>
-      <c r="N48" t="s">
+      <c r="M48" t="s">
         <v>43</v>
       </c>
       <c r="O48" t="s">
@@ -2871,7 +2924,7 @@
       <c r="S48" t="s">
         <v>43</v>
       </c>
-      <c r="U48" t="s">
+      <c r="T48" t="s">
         <v>43</v>
       </c>
       <c r="V48" t="s">
@@ -2889,20 +2942,20 @@
       <c r="Z48" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="5" t="b">
+      <c r="D49" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="P49" t="s">
-        <v>41</v>
-      </c>
       <c r="Q49" t="s">
         <v>41</v>
       </c>
@@ -2912,7 +2965,7 @@
       <c r="S49" t="s">
         <v>41</v>
       </c>
-      <c r="U49" t="s">
+      <c r="T49" t="s">
         <v>41</v>
       </c>
       <c r="V49" t="s">
@@ -2930,16 +2983,19 @@
       <c r="Z49" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H50" t="s">
-        <v>41</v>
+      <c r="C50" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I50" t="s">
         <v>41</v>
@@ -2953,7 +3009,7 @@
       <c r="L50" t="s">
         <v>41</v>
       </c>
-      <c r="N50" t="s">
+      <c r="M50" t="s">
         <v>41</v>
       </c>
       <c r="O50" t="s">
@@ -2971,7 +3027,7 @@
       <c r="S50" t="s">
         <v>41</v>
       </c>
-      <c r="U50" t="s">
+      <c r="T50" t="s">
         <v>41</v>
       </c>
       <c r="V50" t="s">
@@ -2989,50 +3045,83 @@
       <c r="Z50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>79</v>
       </c>
-      <c r="S51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="T51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="N52" t="s">
-        <v>43</v>
-      </c>
       <c r="O52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="P52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="C53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C54" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>39</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3044,63 +3133,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD60A42-6B23-4837-BB6D-1BC9875B3BE1}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="141" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="141" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>41</v>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>41</v>
@@ -3111,21 +3201,24 @@
       <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="15"/>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>41</v>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>41</v>
@@ -3136,23 +3229,24 @@
       <c r="I3" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>41</v>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>41</v>
@@ -3163,49 +3257,51 @@
       <c r="I4" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>43</v>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>43</v>
+      <c r="G6" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>43</v>
@@ -3213,23 +3309,24 @@
       <c r="I6" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>41</v>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>41</v>
@@ -3240,21 +3337,22 @@
       <c r="I7" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>41</v>
@@ -3265,23 +3363,24 @@
       <c r="I8" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>41</v>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>41</v>
@@ -3292,19 +3391,22 @@
       <c r="I9" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="14" t="s">
         <v>41</v>
       </c>
@@ -3317,49 +3419,51 @@
       <c r="I10" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>43</v>
+      <c r="H11" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>43</v>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>43</v>
@@ -3367,44 +3471,46 @@
       <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>43</v>
+      <c r="H13" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="16" t="s">
         <v>43</v>
       </c>
@@ -3417,19 +3523,22 @@
       <c r="I14" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="14" t="s">
         <v>41</v>
       </c>
@@ -3442,23 +3551,26 @@
       <c r="I15" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>41</v>
+      <c r="D16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>41</v>
@@ -3469,19 +3581,22 @@
       <c r="I16" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="15"/>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D17" s="15"/>
-      <c r="E17" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="14" t="s">
         <v>41</v>
       </c>
@@ -3494,69 +3609,74 @@
       <c r="I17" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15"/>
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="15"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>43</v>
+      <c r="H19" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="14" t="s">
         <v>43</v>
       </c>
@@ -3569,46 +3689,50 @@
       <c r="I20" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15"/>
+      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>41</v>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>41</v>
@@ -3619,71 +3743,76 @@
       <c r="I22" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>43</v>
+      <c r="H23" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>41</v>
+      <c r="H24" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="14" t="s">
         <v>41</v>
       </c>
@@ -3694,6 +3823,9 @@
         <v>41</v>
       </c>
       <c r="I25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>41</v>
       </c>
     </row>

--- a/AdminSDHolderTruthMatrix.xlsx
+++ b/AdminSDHolderTruthMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Source\AdminSDHolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C985522-260C-4F5D-B5AA-F5A6D5D9A504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269DD0F3-4F1D-40F8-A054-AAF31AACA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="3760" windowWidth="33580" windowHeight="16370" activeTab="1" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
+    <workbookView xWindow="40260" yWindow="1860" windowWidth="35020" windowHeight="18670" xr2:uid="{2AD1DF6E-F538-461F-9D50-BC6828A1C9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Version" sheetId="1" r:id="rId1"/>
@@ -854,11 +854,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79057642-481E-49F7-B76B-37B0532D9236}">
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2784,8 +2784,8 @@
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>43</v>
+      <c r="V45" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="W45" t="s">
         <v>41</v>
@@ -3135,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD60A42-6B23-4837-BB6D-1BC9875B3BE1}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3714,8 +3714,8 @@
       <c r="H21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>43</v>
+      <c r="I21" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>41</v>
